--- a/H1299_143B_prot-nucl-quant/annotations.xlsx
+++ b/H1299_143B_prot-nucl-quant/annotations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC83BC6-5AFC-6B40-BD76-850DF1C75270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEC41F3-E7B5-634F-BDBA-AB43126084AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1460" windowWidth="27640" windowHeight="16540" xr2:uid="{F1259281-B715-6E4D-91B4-11B14F492516}"/>
+    <workbookView xWindow="1800" yWindow="4200" windowWidth="27000" windowHeight="13800" xr2:uid="{F1259281-B715-6E4D-91B4-11B14F492516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="108">
   <si>
     <t>Q01</t>
   </si>
@@ -334,13 +334,41 @@
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>dilution</t>
+  </si>
+  <si>
+    <t>cell_vol</t>
+  </si>
+  <si>
+    <t>cell_numb</t>
+  </si>
+  <si>
+    <t>Asp_X</t>
+  </si>
+  <si>
+    <t>Asn_frac</t>
+  </si>
+  <si>
+    <t>Gln_frac</t>
+  </si>
+  <si>
+    <t>solvent_vol</t>
+  </si>
+  <si>
+    <t>frac_transferred</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -350,6 +378,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -372,14 +407,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DE7766FB-37D3-6449-A1E6-D596FC5A467F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,18 +731,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB1E6D1-94AB-1142-967E-19BCBAD31052}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -718,8 +760,32 @@
       <c r="E1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -735,8 +801,33 @@
       <c r="E2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I2">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.98813447251299169</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.98523349162107166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -752,8 +843,34 @@
       <c r="E3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G3" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I3">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.98813447251299169</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.98523349162107166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -769,8 +886,34 @@
       <c r="E4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="0">1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.98813447251299169</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.98523349162107166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -786,8 +929,34 @@
       <c r="E5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <v>1000</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.98813447251299169</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.98523349162107166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -803,8 +972,34 @@
       <c r="E6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J6">
+        <v>1000</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.98813447251299169</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.98523349162107166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -820,8 +1015,33 @@
       <c r="E7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J7">
+        <v>1000</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.97844326119610958</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.9855692197370618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -837,8 +1057,34 @@
       <c r="E8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G8" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.97844326119610958</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.9855692197370618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -854,8 +1100,34 @@
       <c r="E9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J9">
+        <v>1000</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.97844326119610958</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.9855692197370618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -871,8 +1143,34 @@
       <c r="E10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J10">
+        <v>1000</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.97844326119610958</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.9855692197370618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -888,8 +1186,34 @@
       <c r="E11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J11">
+        <v>1000</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.97844326119610958</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.9855692197370618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -905,8 +1229,33 @@
       <c r="E12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J12">
+        <v>1000</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.98171638683917894</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.98535688700861268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -922,8 +1271,34 @@
       <c r="E13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G13" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J13">
+        <v>1000</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.98171638683917894</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.98535688700861268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -939,8 +1314,34 @@
       <c r="E14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G14" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J14">
+        <v>1000</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.98171638683917894</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.98535688700861268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -956,8 +1357,34 @@
       <c r="E15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J15">
+        <v>1000</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.98171638683917894</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.98535688700861268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -973,8 +1400,34 @@
       <c r="E16" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>472133.33333333326</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2.5173132333333332</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J16">
+        <v>1000</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.98171638683917894</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.98535688700861268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -990,8 +1443,33 @@
       <c r="E17" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J17">
+        <v>1000</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.98370122188439535</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.98526097601448215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1007,8 +1485,34 @@
       <c r="E18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G18" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J18">
+        <v>1000</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.98370122188439535</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.98526097601448215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1024,8 +1528,34 @@
       <c r="E19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G19" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J19">
+        <v>1000</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.98370122188439535</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.98526097601448215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1041,8 +1571,34 @@
       <c r="E20" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J20">
+        <v>1000</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.98370122188439535</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.98526097601448215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1058,8 +1614,34 @@
       <c r="E21" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J21">
+        <v>1000</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.98370122188439535</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.98526097601448215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1075,8 +1657,33 @@
       <c r="E22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J22">
+        <v>1000</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.98444217781278187</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.98532572032377885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1092,8 +1699,34 @@
       <c r="E23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G23" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J23">
+        <v>1000</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.98444217781278187</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.98532572032377885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1109,8 +1742,34 @@
       <c r="E24" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G24" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J24">
+        <v>1000</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.98444217781278187</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.98532572032377885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1126,8 +1785,34 @@
       <c r="E25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J25">
+        <v>1000</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.98444217781278187</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.98532572032377885</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1143,8 +1828,34 @@
       <c r="E26" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J26">
+        <v>1000</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.98444217781278187</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.98532572032377885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1160,8 +1871,33 @@
       <c r="E27" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J27">
+        <v>1000</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.98142091685508481</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.98549024105169092</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1177,8 +1913,34 @@
       <c r="E28" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G28" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J28">
+        <v>1000</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.98142091685508481</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.98549024105169092</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1194,8 +1956,34 @@
       <c r="E29" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G29" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J29">
+        <v>1000</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.98142091685508481</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.98549024105169092</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1211,8 +1999,34 @@
       <c r="E30" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J30">
+        <v>1000</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.98142091685508481</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.98549024105169092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1228,8 +2042,34 @@
       <c r="E31" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>425233.33333333326</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2.2705789666666667</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J31">
+        <v>1000</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.98142091685508481</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.98549024105169092</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1245,8 +2085,33 @@
       <c r="E32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J32">
+        <v>1000</v>
+      </c>
+      <c r="K32">
+        <v>0.8</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.99831841109624342</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.98345181868191656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1262,8 +2127,34 @@
       <c r="E33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G33" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J33">
+        <v>1000</v>
+      </c>
+      <c r="K33">
+        <v>0.8</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.99831841109624342</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.98345181868191656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1279,8 +2170,34 @@
       <c r="E34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G34" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H34" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J34">
+        <v>1000</v>
+      </c>
+      <c r="K34">
+        <v>0.8</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.99831841109624342</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.98345181868191656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1296,8 +2213,34 @@
       <c r="E35" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J35">
+        <v>1000</v>
+      </c>
+      <c r="K35">
+        <v>0.8</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.99831841109624342</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.98345181868191656</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1313,8 +2256,34 @@
       <c r="E36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H36" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J36">
+        <v>1000</v>
+      </c>
+      <c r="K36">
+        <v>0.8</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.99831841109624342</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.98345181868191656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1330,8 +2299,33 @@
       <c r="E37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J37">
+        <v>1000</v>
+      </c>
+      <c r="K37">
+        <v>0.8</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.9983654212875761</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.98459453814896913</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1347,8 +2341,34 @@
       <c r="E38" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G38" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J38">
+        <v>1000</v>
+      </c>
+      <c r="K38">
+        <v>0.8</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.9983654212875761</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.98459453814896913</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1364,8 +2384,34 @@
       <c r="E39" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G39" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J39">
+        <v>1000</v>
+      </c>
+      <c r="K39">
+        <v>0.8</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.9983654212875761</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.98459453814896913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1381,8 +2427,34 @@
       <c r="E40" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J40">
+        <v>1000</v>
+      </c>
+      <c r="K40">
+        <v>0.8</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.9983654212875761</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.98459453814896913</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1398,8 +2470,34 @@
       <c r="E41" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J41">
+        <v>1000</v>
+      </c>
+      <c r="K41">
+        <v>0.8</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.9983654212875761</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.98459453814896913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1415,8 +2513,33 @@
       <c r="E42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J42">
+        <v>1000</v>
+      </c>
+      <c r="K42">
+        <v>0.8</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.99823306814391799</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.98435871555138388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1432,8 +2555,34 @@
       <c r="E43" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G43" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J43">
+        <v>1000</v>
+      </c>
+      <c r="K43">
+        <v>0.8</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.99823306814391799</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.98435871555138388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1449,8 +2598,34 @@
       <c r="E44" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G44" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J44">
+        <v>1000</v>
+      </c>
+      <c r="K44">
+        <v>0.8</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.99823306814391799</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.98435871555138388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1466,8 +2641,34 @@
       <c r="E45" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J45">
+        <v>1000</v>
+      </c>
+      <c r="K45">
+        <v>0.8</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.99823306814391799</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.98435871555138388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1483,8 +2684,34 @@
       <c r="E46" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>870366.66666666651</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4.0204497333333329</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J46">
+        <v>1000</v>
+      </c>
+      <c r="K46">
+        <v>0.8</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.99823306814391799</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.98435871555138388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1500,8 +2727,33 @@
       <c r="E47" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J47">
+        <v>1000</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.99303714571836632</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.99596473906397409</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1517,8 +2769,34 @@
       <c r="E48" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G48" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J48">
+        <v>1000</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.99303714571836632</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.99596473906397409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1534,8 +2812,34 @@
       <c r="E49" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G49" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J49">
+        <v>1000</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.99303714571836632</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.99596473906397409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1551,8 +2855,34 @@
       <c r="E50" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J50">
+        <v>1000</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.99303714571836632</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0.99596473906397409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1568,8 +2898,34 @@
       <c r="E51" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H51" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J51">
+        <v>1000</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.99303714571836632</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.99596473906397409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1585,8 +2941,33 @@
       <c r="E52" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J52">
+        <v>1000</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.98791250034343281</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.99603079569268149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1602,8 +2983,34 @@
       <c r="E53" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G53" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J53">
+        <v>1000</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.98791250034343281</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.99603079569268149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1619,8 +3026,34 @@
       <c r="E54" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G54" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J54">
+        <v>1000</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.98791250034343281</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.99603079569268149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1636,8 +3069,34 @@
       <c r="E55" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J55">
+        <v>1000</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.98791250034343281</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.99603079569268149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1653,8 +3112,34 @@
       <c r="E56" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J56">
+        <v>1000</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.98791250034343281</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.99603079569268149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1670,8 +3155,33 @@
       <c r="E57" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J57">
+        <v>1000</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.9888744017294393</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.99615255378007161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1687,8 +3197,34 @@
       <c r="E58" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G58" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J58">
+        <v>1000</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.9888744017294393</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.99615255378007161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1704,8 +3240,34 @@
       <c r="E59" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G59" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J59">
+        <v>1000</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.9888744017294393</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.99615255378007161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1721,8 +3283,34 @@
       <c r="E60" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J60">
+        <v>1000</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.9888744017294393</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.99615255378007161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1738,8 +3326,34 @@
       <c r="E61" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="2">
+        <v>414133.33333333326</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2.9880707000000002</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J61">
+        <v>1000</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.9888744017294393</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0.99615255378007161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1755,8 +3369,33 @@
       <c r="E62" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J62">
+        <v>1000</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.98927847918162748</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.99629313416907672</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1772,8 +3411,34 @@
       <c r="E63" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G63" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J63">
+        <v>1000</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0.98927847918162748</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0.99629313416907672</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1789,8 +3454,34 @@
       <c r="E64" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G64" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H64" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J64">
+        <v>1000</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.98927847918162748</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0.99629313416907672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1806,8 +3497,34 @@
       <c r="E65" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H65" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J65">
+        <v>1000</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0.98927847918162748</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0.99629313416907672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1823,8 +3540,34 @@
       <c r="E66" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J66">
+        <v>1000</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0.98927847918162748</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0.99629313416907672</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1840,8 +3583,33 @@
       <c r="E67" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H67" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J67">
+        <v>1000</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.98772287236592582</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0.99615904639975505</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1857,8 +3625,34 @@
       <c r="E68" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G68" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H68" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I91" si="1">1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="J68">
+        <v>1000</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.98772287236592582</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.99615904639975505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1874,8 +3668,34 @@
       <c r="E69" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G69" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H69" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J69">
+        <v>1000</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0.98772287236592582</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0.99615904639975505</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1891,8 +3711,34 @@
       <c r="E70" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G70" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J70">
+        <v>1000</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0.98772287236592582</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.99615904639975505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1908,8 +3754,34 @@
       <c r="E71" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G71" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H71" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J71">
+        <v>1000</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.98772287236592582</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0.99615904639975505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1925,8 +3797,33 @@
       <c r="E72" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J72">
+        <v>1000</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.988717454918285</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0.9962065527451649</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1942,8 +3839,34 @@
       <c r="E73" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G73" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H73" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J73">
+        <v>1000</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0.988717454918285</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0.9962065527451649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1959,8 +3882,34 @@
       <c r="E74" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G74" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H74" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J74">
+        <v>1000</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0.988717454918285</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0.9962065527451649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1976,8 +3925,34 @@
       <c r="E75" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G75" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H75" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J75">
+        <v>1000</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.988717454918285</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0.9962065527451649</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1993,8 +3968,34 @@
       <c r="E76" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="2">
+        <v>429100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3.0466908000000004</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J76">
+        <v>1000</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.988717454918285</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0.9962065527451649</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2010,8 +4011,33 @@
       <c r="E77" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H77" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J77">
+        <v>1000</v>
+      </c>
+      <c r="K77">
+        <v>0.8</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0.99795329635912355</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0.99534173760030098</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2027,8 +4053,34 @@
       <c r="E78" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G78" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H78" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J78">
+        <v>1000</v>
+      </c>
+      <c r="K78">
+        <v>0.8</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0.99795329635912355</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0.99534173760030098</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2044,8 +4096,34 @@
       <c r="E79" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G79" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H79" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J79">
+        <v>1000</v>
+      </c>
+      <c r="K79">
+        <v>0.8</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0.99795329635912355</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0.99534173760030098</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2061,8 +4139,34 @@
       <c r="E80" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H80" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J80">
+        <v>1000</v>
+      </c>
+      <c r="K80">
+        <v>0.8</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0.99795329635912355</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0.99534173760030098</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2078,8 +4182,34 @@
       <c r="E81" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G81" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H81" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J81">
+        <v>1000</v>
+      </c>
+      <c r="K81">
+        <v>0.8</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0.99795329635912355</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0.99534173760030098</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2095,8 +4225,33 @@
       <c r="E82" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H82" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J82">
+        <v>1000</v>
+      </c>
+      <c r="K82">
+        <v>0.8</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0.99802196939392029</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0.99537337417942529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2112,8 +4267,34 @@
       <c r="E83" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G83" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H83" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J83">
+        <v>1000</v>
+      </c>
+      <c r="K83">
+        <v>0.8</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0.99802196939392029</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0.99537337417942529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2129,8 +4310,34 @@
       <c r="E84" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G84" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H84" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J84">
+        <v>1000</v>
+      </c>
+      <c r="K84">
+        <v>0.8</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0.99802196939392029</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0.99537337417942529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2146,8 +4353,34 @@
       <c r="E85" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G85" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H85" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J85">
+        <v>1000</v>
+      </c>
+      <c r="K85">
+        <v>0.8</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0.99802196939392029</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0.99537337417942529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2163,8 +4396,34 @@
       <c r="E86" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G86" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H86" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J86">
+        <v>1000</v>
+      </c>
+      <c r="K86">
+        <v>0.8</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0.99802196939392029</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0.99537337417942529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2180,8 +4439,33 @@
       <c r="E87" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H87" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J87">
+        <v>1000</v>
+      </c>
+      <c r="K87">
+        <v>0.8</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0.99791316596667234</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0.99549416067874885</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2197,8 +4481,34 @@
       <c r="E88" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G88" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H88" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J88">
+        <v>1000</v>
+      </c>
+      <c r="K88">
+        <v>0.8</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0.99791316596667234</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0.99549416067874885</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2214,8 +4524,34 @@
       <c r="E89" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <f>50/40</f>
+        <v>1.25</v>
+      </c>
+      <c r="G89" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H89" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J89">
+        <v>1000</v>
+      </c>
+      <c r="K89">
+        <v>0.8</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0.99791316596667234</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0.99549416067874885</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2231,8 +4567,34 @@
       <c r="E90" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G90" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H90" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J90">
+        <v>1000</v>
+      </c>
+      <c r="K90">
+        <v>0.8</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0.99791316596667234</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0.99549416067874885</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2247,6 +4609,32 @@
       </c>
       <c r="E91" t="s">
         <v>99</v>
+      </c>
+      <c r="F91">
+        <f>20/40</f>
+        <v>0.5</v>
+      </c>
+      <c r="G91" s="2">
+        <v>766466.66666666651</v>
+      </c>
+      <c r="H91" s="3">
+        <v>5.0319034666666678</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J91">
+        <v>1000</v>
+      </c>
+      <c r="K91">
+        <v>0.8</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0.99791316596667234</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0.99549416067874885</v>
       </c>
     </row>
   </sheetData>
